--- a/biology/Médecine/Lavage_bronchoalvéolaire/Lavage_bronchoalvéolaire.xlsx
+++ b/biology/Médecine/Lavage_bronchoalvéolaire/Lavage_bronchoalvéolaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lavage_bronchoalv%C3%A9olaire</t>
+          <t>Lavage_bronchoalvéolaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lavage bronchoalvéolaire est une méthode d'aide au diagnostic médical, développée par Finley et Reynolds, consistant à injecter dans les bronches et les alvéoles pulmonaires une solution (50  à   250 ml) de liquide physiologique stérile à 37 °C, ou un agent mucolytique. On récupère ensuite ce liquide ce qui permet d'effectuer certains examens à la recherche d'infections ou d'autres pathologies.
 Le lavage bronchoalvéolaire représente une méthode d'exploration des territoires alvéolaires, c'est-à-dire du « poumon profond ». Il apporte par son étude des populations cellulaires, des renseignements intéressants pour le diagnostic et la surveillance d'un certain nombre d'affections respiratoires diffuses (sarcoïdose, fibrose pulmonaire, pneumopathie immunoallergique).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lavage_bronchoalv%C3%A9olaire</t>
+          <t>Lavage_bronchoalvéolaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,20 +525,91 @@
           <t>Indications du lavage bronchoalvéolaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le lavage bronchoalvéolaire (LBA) est un examen très rentable et peu agressif pour l'investigation des pneumopathies (particulièrement si elles sont diffuses) du patient immunocompromis et du patient aplasié.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lavage bronchoalvéolaire (LBA) est un examen très rentable et peu agressif pour l'investigation des pneumopathies (particulièrement si elles sont diffuses) du patient immunocompromis et du patient aplasié.
 Il est réalisable chez la plupart des patients, éventuellement avec le support de la ventilation non invasive et y compris sous ventilation artificielle invasive.
 Chez le sujet normal, le LBA ramène essentiellement des macrophages alvéolaires
 Il permet le diagnostic différentiel des affections suivantes :
-Pathologies infectieuses
-Bactériennes : mycobactéries (tuberculose, atypiques), legionella, mycoplasme, nocardiose, bactéries ordinaires (notamment en cas de pneumonie sous respirateur) ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lavage_bronchoalvéolaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavage_bronchoalv%C3%A9olaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Indications du lavage bronchoalvéolaire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pathologies infectieuses</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bactériennes : mycobactéries (tuberculose, atypiques), legionella, mycoplasme, nocardiose, bactéries ordinaires (notamment en cas de pneumonie sous respirateur) ;
 Virales (IF ou PCR) : herpès, cytomégalovirus, influenza, VRS (pour ces deux derniers, on privilégiera l'aspiration nasopharyngée ou l'écouvillonage en première intention).
 Ce mode exploratoire des poumons a été recommandé fin août 2006 par les CDC des États-Unis pour le diagnostic du virus H5N1 dit de la grippe aviaire.
 Fongiques : aspergillus, cryptocoque ;
-Parasitaires : toxoplasmose, Pneumocystis carinii (IF, PCR), strongyloides
-Pathologies non infectieuses
-Infiltration néoplasique diffuse : présence de cellules néoplasiques
+Parasitaires : toxoplasmose, Pneumocystis carinii (IF, PCR), strongyloides</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lavage_bronchoalvéolaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavage_bronchoalv%C3%A9olaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Indications du lavage bronchoalvéolaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pathologies non infectieuses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Infiltration néoplasique diffuse : présence de cellules néoplasiques
 hémorragie intra-alvéolaire : sidérophages
 pneumopathie d'hypersensibilité : lymphocytose marquée (&gt;50 %), présence de mastocytes, éosinophiles
 protéinose alvéolaire : aspect laiteux, matériel protéinacé PAS-positif
@@ -537,70 +620,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lavage_bronchoalv%C3%A9olaire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lavage_bronchoalv%C3%A9olaire</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Contre-indications au lavage bronchoalvéolaire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tabagisme, grossesse, allergies aux médicaments et anesthésiques (ex ; utilisés par le dentiste), maladie respiratoire ou cardiaque, maladies du sang, hémorragies fréquentes (propension aux saignement de nez), prise antérieure d'anticoagulant tels que l'aspirine, la ticlopidine ou d'un autre anti-agrégant plaquettaire, port d’une prothèse dentaire, adénome de la prostate ou glaucome doivent être signalés au médecin, de même que tout symptômes de type grippaux (toux, fièvre, tremblements..)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lavage_bronchoalv%C3%A9olaire</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lavage_bronchoalv%C3%A9olaire</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Effets indésirables du lavage bronchoalvéolaire</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lavage_bronchoalv%C3%A9olaire</t>
+          <t>Lavage_bronchoalvéolaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,10 +641,73 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Contre-indications au lavage bronchoalvéolaire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tabagisme, grossesse, allergies aux médicaments et anesthésiques (ex ; utilisés par le dentiste), maladie respiratoire ou cardiaque, maladies du sang, hémorragies fréquentes (propension aux saignement de nez), prise antérieure d'anticoagulant tels que l'aspirine, la ticlopidine ou d'un autre anti-agrégant plaquettaire, port d’une prothèse dentaire, adénome de la prostate ou glaucome doivent être signalés au médecin, de même que tout symptômes de type grippaux (toux, fièvre, tremblements..)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lavage_bronchoalvéolaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavage_bronchoalv%C3%A9olaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Effets indésirables du lavage bronchoalvéolaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lavage_bronchoalvéolaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavage_bronchoalv%C3%A9olaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Technique du lavage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L’opération est simple.
 Elle se fait sous endoscopie (fibroscopie).
@@ -634,31 +723,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lavage_bronchoalv%C3%A9olaire</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lavage_bronchoalv%C3%A9olaire</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lavage_bronchoalvéolaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavage_bronchoalv%C3%A9olaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Score de Golde</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En cas de présence de sidérophages (hémosidérose pulmonaire), le score de Golde peut être réalisé. L'intensité de la pigmentation bleue dans les macrophages alvéolaires après coloration de Perls est cotée de 1 à 4, sur au moins 100 macrophages.
 0: négatif
@@ -666,67 +757,71 @@
 2: positivité diffuse nette, quelques grains
 3: positivité intense, le noyau est visible
 4: positivité très intense couvrant l'image du noyau
-La moyenne donne le score de Golde. La normale est inférieure à 25. S'il est supérieur à 100 (ou 120 pour certains), le score est évocateur d'une hémorragie intra-alvéolaire (HIA)[1].
+La moyenne donne le score de Golde. La normale est inférieure à 25. S'il est supérieur à 100 (ou 120 pour certains), le score est évocateur d'une hémorragie intra-alvéolaire (HIA).
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lavage_bronchoalv%C3%A9olaire</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lavage_bronchoalv%C3%A9olaire</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lavage_bronchoalvéolaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavage_bronchoalv%C3%A9olaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Alternatives au lavage bronchoalvéolaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>L'aspiration endotrachéale (AET), qui consiste à aspirer du mucus à fins d'analyse par la sonde d'intubation du malade, est proposée quand les méthodes invasives sont contre-indiquées, mais avec un risque important de contamination par la flore bucco-salivaire.
 Une petite brosse stérile peut être introduite dans la sonde pour récolter des cellules de la paroi des bronches.</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Lavage_bronchoalv%C3%A9olaire</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lavage_bronchoalv%C3%A9olaire</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lavage_bronchoalvéolaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavage_bronchoalv%C3%A9olaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Analyses</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le liquide récupéré est examiné puis analysé en laboratoire.
 On en étudie l'aspect, la nature et la composition biochimique. Ceci permet d'évaluer par exemple la présence de facteurs tumoraux ou d'anomalies biochimiques et inflammatoires. On pourra ensuite apprécier le besoin ou les effets d’une thérapie sur le tissu du poumon interstitiel et la probabilité de problèmes toxicologiques entre autres.
